--- a/biology/Médecine/Muscle_ischio-caverneux/Muscle_ischio-caverneux.xlsx
+++ b/biology/Médecine/Muscle_ischio-caverneux/Muscle_ischio-caverneux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle ischio-caverneux est un petit muscle pair situé juste en dessous de la surface du de la région antérieure du périnée,. Il présent chez les hommes et les femmes.
 Son ancienne dénomination chez la femme était le muscle ischio-clitoridien.
@@ -514,14 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Il naît par des fibres tendineuses et charnues de la surface interne de la tubérosité de l'ischion.
-Terminaison
-Il se termine sur le pilier du pénis chez l’homme; sur le pilier du clitoris chez la femme.
-Innervation
-Il est innervé par un rameau du nerf pudendal.
-Vascularisation
-Il est vascularisé par l'artère périnéale
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il naît par des fibres tendineuses et charnues de la surface interne de la tubérosité de l'ischion.
 </t>
         </is>
       </c>
@@ -547,10 +558,123 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se termine sur le pilier du pénis chez l’homme; sur le pilier du clitoris chez la femme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Muscle_ischio-caverneux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_ischio-caverneux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervé par un rameau du nerf pudendal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscle_ischio-caverneux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_ischio-caverneux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est vascularisé par l'artère périnéale
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscle_ischio-caverneux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_ischio-caverneux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les hommes, il provoque l’érection du pénis.
 Chez les femmes, il provoque l'abaissement du clitoris.
